--- a/target/test-classes/org/squashtest/tm/plugin/custom/export/convergence/generateExcelFile.xlsx
+++ b/target/test-classes/org/squashtest/tm/plugin/custom/export/convergence/generateExcelFile.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjuillard\Documents\segur\squash-convergence-export-plugin\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C667C1-2613-4195-A0C7-B29A28090455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABB709-7583-4887-8F58-3BE32780270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="true" lockRevision="true"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33360" yWindow="-3480" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
   <si>
     <t>Profil</t>
   </si>
@@ -101,12 +101,6 @@
     <t>Exigence</t>
   </si>
   <si>
-    <t>Statut publication</t>
-  </si>
-  <si>
-    <t>Commentaire</t>
-  </si>
-  <si>
     <t>N° preuve</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
   </si>
   <si>
     <t>texte de l'éxigence avec paragraphes :&lt;/br&gt; &lt;p&gt;P1 : text &lt;/p&gt;&lt;p&gt;P2 : text 2&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Ceci est un autre commentaire</t>
-  </si>
-  <si>
-    <t>Inchangée</t>
   </si>
   <si>
     <t>INS.01.01</t>
@@ -163,12 +151,6 @@
 &lt;ul&gt;
         &lt;li&gt;                type d&amp;#39;action ;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&lt;/li&gt;        &lt;li&gt;                identit&amp;eacute; de son auteur ;&lt;/li&gt;        &lt;li&gt;                dates et heures ;&lt;/li&gt;        &lt;li&gt;                moyens techniques utilis&amp;eacute;s (LPS, WPS, etc..) ;&lt;/li&gt;        &lt;li&gt;                adresse r&amp;eacute;seau&lt;/li&gt;        &lt;li&gt;                ...&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;        &amp;nbsp;&lt;/p&gt;
 </t>
-  </si>
-  <si>
-    <t>Ceci est un commentaire</t>
-  </si>
-  <si>
-    <t>Modifiée</t>
   </si>
   <si>
     <t>&lt;strong&gt;description&lt;/strong&gt; du cas de test sans pré-requis et sans steps avec l&amp;apos;apostrophe&lt;ol start="3"&gt;&lt;li&gt;element ordonné (la liste démarre à 3)&lt;/li&gt;&lt;li&gt;element ordonné ( deuxième élément de la liste : numéro 4)&lt;/li&gt;&lt;/ol&gt;reprise du texte après la liste, il faut Une ligne blanche avant</t>
@@ -326,7 +308,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,13 +400,73 @@
       <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -460,13 +502,73 @@
       <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,13 +604,73 @@
       <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,266 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,11 +999,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="15.6"/>
@@ -1114,11 +1016,11 @@
     <col min="6" max="6" customWidth="true" style="4" width="18.58203125" collapsed="false"/>
     <col min="7" max="7" customWidth="true" style="5" width="66.4140625" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="6" width="18.58203125" collapsed="false"/>
-    <col min="9" max="11" customWidth="true" style="5" width="30.58203125" collapsed="false"/>
-    <col min="12" max="16384" style="7" width="9.25" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="5" width="30.58203125" collapsed="false"/>
+    <col min="10" max="16384" style="7" width="9.25" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1141,370 +1043,304 @@
         <v>3</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="F2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="H3" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="H4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="G5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="60" t="s">
+      <c r="H5" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="55" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="59" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>33</v>
+      <c r="I6" s="64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="81" t="s">
-        <v>33</v>
+      <c r="I7" s="73" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="G8" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="92" t="s">
-        <v>33</v>
+      <c r="I8" s="82" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="G9" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="103" t="s">
-        <v>33</v>
+      <c r="I9" s="91" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="109" t="s">
+      <c r="A10" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="116" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="117" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="114" t="s">
-        <v>33</v>
+      <c r="H10" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="100" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="120" t="s">
+      <c r="A11" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="121" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="123" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="126" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="127" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="125" t="s">
-        <v>33</v>
+      <c r="H11" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="109" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection deleteRows="true" deleteColumns="true" insertColumns="true" insertRows="true" sort="false" formatCells="false" formatColumns="false" formatRows="false" autoFilter="false" insertHyperlinks="false" password="8609" sheet="true" scenarios="true" objects="true"/>
+  <sheetProtection deleteRows="true" deleteColumns="true" insertColumns="true" insertRows="true" sort="false" formatCells="false" formatColumns="false" formatRows="false" autoFilter="false" insertHyperlinks="false" password="CCF8" sheet="true" scenarios="true" objects="true"/>
   <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/test-classes/org/squashtest/tm/plugin/custom/export/convergence/generateExcelFile.xlsx
+++ b/target/test-classes/org/squashtest/tm/plugin/custom/export/convergence/generateExcelFile.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Profil</t>
   </si>
@@ -308,7 +308,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -378,176 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="true" applyAlignment="1" applyProtection="1">
@@ -1109,16 +939,16 @@
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>4</v>
@@ -1127,42 +957,42 @@
         <v>20</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1182,165 +1012,20 @@
         <v>4</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="63" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="109" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection deleteRows="true" deleteColumns="true" insertColumns="true" insertRows="true" sort="false" formatCells="false" formatColumns="false" formatRows="false" autoFilter="false" insertHyperlinks="false" password="CCF8" sheet="true" scenarios="true" objects="true"/>
+  <sheetProtection deleteRows="true" deleteColumns="true" insertColumns="true" insertRows="true" sort="false" formatCells="false" formatColumns="false" formatRows="false" autoFilter="false" insertHyperlinks="false" password="9A29" sheet="true" scenarios="true" objects="true"/>
   <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
